--- a/Luban/ExcelConfig/Datas/bolt.xlsx
+++ b/Luban/ExcelConfig/Datas/bolt.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
   <si>
     <t>##var</t>
   </si>
@@ -38,12 +38,15 @@
     <t>alias</t>
   </si>
   <si>
-    <t>collider_name</t>
-  </si>
-  <si>
     <t>shape</t>
   </si>
   <si>
+    <t>center#default=0,0,0</t>
+  </si>
+  <si>
+    <t>size#default=1,1,1</t>
+  </si>
+  <si>
     <t>size_ratio#default=1</t>
   </si>
   <si>
@@ -59,6 +62,9 @@
     <t>string</t>
   </si>
   <si>
+    <t>hmath.Vector3#sep=,</t>
+  </si>
+  <si>
     <t>float</t>
   </si>
   <si>
@@ -84,9 +90,6 @@
   </si>
   <si>
     <t>地波斩投射物</t>
-  </si>
-  <si>
-    <t>col_abi_dibozhan</t>
   </si>
   <si>
     <t>dibozhan</t>
@@ -1039,14 +1042,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="9" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E13" sqref="E13"/>
+      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1054,18 +1057,17 @@
     <col min="1" max="1" width="8.875" customWidth="1"/>
     <col min="2" max="2" width="7" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="19.3333333333333" customWidth="1"/>
-    <col min="5" max="5" width="28.1666666666667" customWidth="1"/>
-    <col min="6" max="6" width="21" customWidth="1"/>
-    <col min="7" max="7" width="33.5" customWidth="1"/>
-    <col min="8" max="8" width="31.5" customWidth="1"/>
-    <col min="9" max="9" width="42.375" customWidth="1"/>
-    <col min="10" max="10" width="40" customWidth="1"/>
-    <col min="11" max="11" width="43.5" customWidth="1"/>
-    <col min="12" max="12" width="38.5" customWidth="1"/>
+    <col min="4" max="6" width="28.1666666666667" customWidth="1"/>
+    <col min="7" max="7" width="21" customWidth="1"/>
+    <col min="8" max="8" width="33.5" customWidth="1"/>
+    <col min="9" max="9" width="31.5" customWidth="1"/>
+    <col min="10" max="10" width="42.375" customWidth="1"/>
+    <col min="11" max="11" width="40" customWidth="1"/>
+    <col min="12" max="12" width="43.5" customWidth="1"/>
+    <col min="13" max="13" width="38.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:10">
+    <row r="1" s="1" customFormat="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1087,145 +1089,153 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1"/>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="I1"/>
       <c r="J1"/>
+      <c r="K1"/>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:10">
+    <row r="2" s="1" customFormat="1" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2"/>
       <c r="I2"/>
       <c r="J2"/>
+      <c r="K2"/>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:10">
+    <row r="3" s="1" customFormat="1" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G3"/>
       <c r="H3"/>
       <c r="I3"/>
       <c r="J3"/>
+      <c r="K3"/>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:10">
+    <row r="4" s="1" customFormat="1" spans="1:11">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G4"/>
       <c r="H4"/>
       <c r="I4"/>
       <c r="J4"/>
+      <c r="K4"/>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:10">
+    <row r="5" s="1" customFormat="1" spans="1:11">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G5"/>
       <c r="H5"/>
       <c r="I5"/>
       <c r="J5"/>
+      <c r="K5"/>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:10">
+    <row r="6" s="1" customFormat="1" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6"/>
+        <v>13</v>
+      </c>
       <c r="H6"/>
       <c r="I6"/>
       <c r="J6"/>
+      <c r="K6"/>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:10">
+    <row r="7" s="1" customFormat="1" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7"/>
+        <v>16</v>
+      </c>
       <c r="H7"/>
       <c r="I7"/>
       <c r="J7"/>
+      <c r="K7"/>
     </row>
-    <row r="8" s="1" customFormat="1" spans="1:10">
+    <row r="8" s="1" customFormat="1" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8"/>
+        <v>14</v>
+      </c>
       <c r="H8"/>
       <c r="I8"/>
       <c r="J8"/>
+      <c r="K8"/>
     </row>
-    <row r="9" s="1" customFormat="1" spans="1:10">
+    <row r="9" s="1" customFormat="1" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9"/>
+        <v>14</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="H9"/>
       <c r="I9"/>
       <c r="J9"/>
+      <c r="K9"/>
     </row>
-    <row r="10" customFormat="1" spans="2:7">
+    <row r="10" customFormat="1" spans="2:8">
       <c r="B10">
         <v>10000</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10">
+        <v>18</v>
+      </c>
+      <c r="D10">
         <v>-1</v>
       </c>
-      <c r="G10" t="s">
-        <v>17</v>
+      <c r="H10" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="11" spans="2:7">
+    <row r="11" spans="2:8">
       <c r="B11">
         <v>10001</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" t="s">
         <v>20</v>
       </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="H11" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="12" spans="2:7">
+    <row r="12" spans="2:8">
       <c r="B12">
         <v>10002</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" t="s">
         <v>22</v>
+      </c>
+      <c r="H12" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Luban/ExcelConfig/Datas/bolt.xlsx
+++ b/Luban/ExcelConfig/Datas/bolt.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
   <si>
     <t>##var</t>
   </si>
@@ -99,6 +99,12 @@
   </si>
   <si>
     <t>kuaishe</t>
+  </si>
+  <si>
+    <t>混乱之箭投射物</t>
+  </si>
+  <si>
+    <t>hunluanzhijian</t>
   </si>
 </sst>
 </file>
@@ -1042,14 +1048,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="9" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1238,6 +1244,20 @@
         <v>23</v>
       </c>
     </row>
+    <row r="13" spans="2:8">
+      <c r="B13">
+        <v>10003</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13">
+        <v>-1</v>
+      </c>
+      <c r="H13" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Luban/ExcelConfig/Datas/bolt.xlsx
+++ b/Luban/ExcelConfig/Datas/bolt.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17680"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="sheel1" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
   <si>
     <t>##var</t>
   </si>
@@ -41,15 +41,9 @@
     <t>shape</t>
   </si>
   <si>
-    <t>center#default=0,0,0</t>
-  </si>
-  <si>
     <t>size#default=1,1,1</t>
   </si>
   <si>
-    <t>size_ratio#default=1</t>
-  </si>
-  <si>
     <t>model_name</t>
   </si>
   <si>
@@ -65,9 +59,6 @@
     <t>hmath.Vector3#sep=,</t>
   </si>
   <si>
-    <t>float</t>
-  </si>
-  <si>
     <t>##group</t>
   </si>
   <si>
@@ -104,7 +95,16 @@
     <t>混乱之箭投射物</t>
   </si>
   <si>
+    <t>2,2,2</t>
+  </si>
+  <si>
     <t>hunluanzhijian</t>
+  </si>
+  <si>
+    <t>流星落投射物</t>
+  </si>
+  <si>
+    <t>liuxingluo</t>
   </si>
 </sst>
 </file>
@@ -726,9 +726,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1048,32 +1053,33 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="9" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="8.875" customWidth="1"/>
-    <col min="2" max="2" width="7" customWidth="1"/>
-    <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="6" width="28.1666666666667" customWidth="1"/>
-    <col min="7" max="7" width="21" customWidth="1"/>
-    <col min="8" max="8" width="33.5" customWidth="1"/>
-    <col min="9" max="9" width="31.5" customWidth="1"/>
-    <col min="10" max="10" width="42.375" customWidth="1"/>
-    <col min="11" max="11" width="40" customWidth="1"/>
-    <col min="12" max="12" width="43.5" customWidth="1"/>
-    <col min="13" max="13" width="38.5" customWidth="1"/>
+    <col min="1" max="1" width="8.875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="7" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15" style="2" customWidth="1"/>
+    <col min="4" max="4" width="19.75" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20.875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="16.625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="31.5" style="2" customWidth="1"/>
+    <col min="8" max="8" width="42.375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="40" style="2" customWidth="1"/>
+    <col min="10" max="10" width="43.5" style="2" customWidth="1"/>
+    <col min="11" max="11" width="38.5" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:11">
+    <row r="1" s="1" customFormat="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1092,169 +1098,176 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:9">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1"/>
-      <c r="J1"/>
-      <c r="K1"/>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:11">
-      <c r="A2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2"/>
-      <c r="J2"/>
-      <c r="K2"/>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:11">
+        <v>8</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H3"/>
-      <c r="I3"/>
-      <c r="J3"/>
-      <c r="K3"/>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:11">
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H4"/>
-      <c r="I4"/>
-      <c r="J4"/>
-      <c r="K4"/>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:11">
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:9">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H5"/>
-      <c r="I5"/>
-      <c r="J5"/>
-      <c r="K5"/>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="1:11">
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:9">
       <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:9">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H6"/>
-      <c r="I6"/>
-      <c r="J6"/>
-      <c r="K6"/>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="1:11">
-      <c r="A7" s="1" t="s">
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:9">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="1:9">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" s="2" customFormat="1" spans="2:6">
+      <c r="B10" s="2">
+        <v>10000</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D10" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H7"/>
-      <c r="I7"/>
-      <c r="J7"/>
-      <c r="K7"/>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="1:11">
-      <c r="A8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8"/>
-      <c r="I8"/>
-      <c r="J8"/>
-      <c r="K8"/>
-    </row>
-    <row r="9" s="1" customFormat="1" spans="1:11">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="1" t="s">
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="2">
+        <v>10001</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H9"/>
-      <c r="I9"/>
-      <c r="J9"/>
-      <c r="K9"/>
-    </row>
-    <row r="10" customFormat="1" spans="2:8">
-      <c r="B10">
-        <v>10000</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D10">
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="2">
+        <v>10002</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="2">
+        <v>10003</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="2">
         <v>-1</v>
       </c>
-      <c r="H10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8">
-      <c r="B11">
-        <v>10001</v>
-      </c>
-      <c r="C11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11"/>
-      <c r="F11"/>
-      <c r="H11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8">
-      <c r="B12">
-        <v>10002</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="E13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H12" t="s">
+      <c r="F13" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="2:8">
-      <c r="B13">
-        <v>10003</v>
-      </c>
-      <c r="C13" t="s">
+    <row r="14" spans="2:6">
+      <c r="B14" s="2">
+        <v>10004</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D13">
-        <v>-1</v>
-      </c>
-      <c r="H13" t="s">
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>25</v>
       </c>
     </row>
